--- a/ji_hua work/黄俊贤2017年度目标与绩效管理表V2.0.xlsx
+++ b/ji_hua work/黄俊贤2017年度目标与绩效管理表V2.0.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>2017年度目标与绩效管理表</t>
   </si>
@@ -2592,6 +2592,18 @@
     </r>
   </si>
   <si>
+    <t>实现进行治疗时，对病人默认ID号进行处理。以及病人信息页面对默认ID号的读写操作</t>
+  </si>
+  <si>
+    <t>11月15号</t>
+  </si>
+  <si>
+    <t>实现记录曲线对数据库读取缓冲区，提高曲线的刷新速度</t>
+  </si>
+  <si>
+    <t>11月17号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2626,6 +2638,15 @@
     </r>
   </si>
   <si>
+    <t>根据反馈意见，查找和修改治疗时点击超滤泵会死机的BUG</t>
+  </si>
+  <si>
+    <t>11月24号</t>
+  </si>
+  <si>
+    <t>根据建议，进行数据记录曲线的页面更改和完善</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2801,10 +2822,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -3088,6 +3109,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3114,29 +3158,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3377,6 +3398,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3396,30 +3441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3826,10 +3847,10 @@
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3844,7 +3865,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3856,28 +3877,28 @@
     <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3889,7 +3910,7 @@
     <xf numFmtId="0" fontId="58" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3919,13 +3940,13 @@
     <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3940,13 +3961,13 @@
     <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3955,7 +3976,7 @@
     <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13516,7 +13537,7 @@
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18411,10 +18432,10 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -18699,7 +18720,9 @@
         <v>312</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
@@ -18715,7 +18738,9 @@
         <v>312</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
@@ -18875,10 +18900,16 @@
       <c r="B34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>316</v>
+      </c>
       <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
     </row>
@@ -18887,10 +18918,16 @@
       <c r="B35" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>318</v>
+      </c>
       <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
     </row>
@@ -18993,7 +19030,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>87</v>
@@ -19050,8 +19087,12 @@
       <c r="B48" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="C48" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>321</v>
+      </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -19062,8 +19103,12 @@
       <c r="B49" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>321</v>
+      </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
@@ -19162,7 +19207,7 @@
         <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>87</v>
@@ -19953,7 +19998,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>87</v>
@@ -20128,7 +20173,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>87</v>
@@ -20303,7 +20348,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>87</v>
@@ -20478,7 +20523,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>87</v>

--- a/ji_hua work/黄俊贤2017年度目标与绩效管理表V2.0.xlsx
+++ b/ji_hua work/黄俊贤2017年度目标与绩效管理表V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" tabRatio="779" firstSheet="13" activeTab="23"/>
+    <workbookView windowWidth="24180" windowHeight="13065" tabRatio="779" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="FY17年度目标与工作计划 " sheetId="31" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332">
   <si>
     <t>2017年度目标与绩效管理表</t>
   </si>
@@ -2681,6 +2681,18 @@
     </r>
   </si>
   <si>
+    <t>根据新要求修改置换泵页面，添加补液功能</t>
+  </si>
+  <si>
+    <t>11月30号</t>
+  </si>
+  <si>
+    <t>重新检查和更改通信框架，避免多报警死机的BUG</t>
+  </si>
+  <si>
+    <t>12月1号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2822,10 +2834,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -3102,21 +3114,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3127,44 +3124,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3188,9 +3147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3211,14 +3170,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3233,20 +3250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3398,25 +3410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3446,79 +3452,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3560,6 +3512,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3579,6 +3573,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3730,21 +3742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3786,17 +3783,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3819,11 +3805,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3835,10 +3847,10 @@
     <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="39" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3847,145 +3859,145 @@
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -18433,9 +18445,9 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -19094,7 +19106,9 @@
         <v>321</v>
       </c>
       <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="F48" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
     </row>
@@ -19110,7 +19124,9 @@
         <v>321</v>
       </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
     </row>
@@ -19264,8 +19280,12 @@
       <c r="B62" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>325</v>
+      </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
@@ -19276,8 +19296,12 @@
       <c r="B63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
+      <c r="C63" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>327</v>
+      </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -19998,7 +20022,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>87</v>
@@ -20173,7 +20197,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>87</v>
@@ -20348,7 +20372,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>87</v>
@@ -20523,7 +20547,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>87</v>
